--- a/Features.xlsx
+++ b/Features.xlsx
@@ -5,12 +5,12 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Else\Creations\Cash Flow\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Else\Creations\CashFlowApp\RiverOfGold\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3FB32BA0-4FBD-49E8-8D6F-156ACC7828EF}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E119838E-E5B6-48F5-B24C-1CB8C66F1E25}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="1400" yWindow="1400" windowWidth="14400" windowHeight="7360" xr2:uid="{3747EDD1-D810-4E71-896A-189F1E6687F4}"/>
+    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10420" xr2:uid="{3747EDD1-D810-4E71-896A-189F1E6687F4}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="19" uniqueCount="19">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="24" uniqueCount="24">
   <si>
     <t>一次支付</t>
   </si>
@@ -102,6 +102,21 @@
   </si>
   <si>
     <t>预测功能？允许加入后看一看对现金流的影响</t>
+  </si>
+  <si>
+    <t>输出：</t>
+  </si>
+  <si>
+    <t>每月现金流</t>
+  </si>
+  <si>
+    <t>每年现金流</t>
+  </si>
+  <si>
+    <t>每种保险从第一次缴费统计到今天为止，每一个保险的所交费用总额，这个是每年个人事项申报的时候要用的数据。每一个保单号，分别进行统计</t>
+  </si>
+  <si>
+    <t>每一个月都可以统计，到目前为止，单个保险累计已交多少钱</t>
   </si>
 </sst>
 </file>
@@ -463,16 +478,17 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{FAB1619C-5631-41F7-BEB2-B4B051BE4B36}">
-  <dimension ref="A1:F16"/>
+  <dimension ref="A1:F22"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D14" sqref="D14"/>
+      <selection activeCell="H14" sqref="H14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
     <col min="1" max="1" width="18.6328125" customWidth="1"/>
     <col min="2" max="2" width="17" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="10.81640625" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="39.08984375" customWidth="1"/>
   </cols>
   <sheetData>
@@ -514,53 +530,76 @@
       </c>
     </row>
     <row r="7" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="A7" s="1" t="s">
+      <c r="A7" t="s">
+        <v>19</v>
+      </c>
+      <c r="B7" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="8" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="B8" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="9" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="B9" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="10" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="B10" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="13" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A13" s="1" t="s">
         <v>16</v>
       </c>
     </row>
-    <row r="8" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="A8" s="2" t="s">
+    <row r="14" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A14" s="2" t="s">
         <v>18</v>
       </c>
     </row>
-    <row r="9" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="A9" s="1"/>
-    </row>
-    <row r="10" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="A10" t="s">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="11" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="A11" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="12" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="A12" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="13" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="A13" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="14" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="A14" t="s">
-        <v>10</v>
-      </c>
-    </row>
     <row r="15" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="A15" t="s">
-        <v>12</v>
-      </c>
+      <c r="A15" s="1"/>
     </row>
     <row r="16" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A16" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="17" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A17" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="18" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A18" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="19" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A19" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="20" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A20" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="21" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A21" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="22" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A22" t="s">
         <v>11</v>
       </c>
-      <c r="B16" t="s">
+      <c r="B22" t="s">
         <v>13</v>
       </c>
     </row>
